--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62394.00657899447</v>
+        <v>-53511.73660780564</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26049730.58405038</v>
+        <v>26093951.53785376</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21346344.48751143</v>
+        <v>21394286.60464059</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1424506.511658513</v>
+        <v>1400766.40864448</v>
       </c>
     </row>
     <row r="11">
@@ -7979,28 +7981,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>35.12399553673127</v>
+        <v>40.5121283012307</v>
       </c>
       <c r="L2" t="n">
-        <v>28.47824703393654</v>
+        <v>35.16270217958864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>24.70558680915735</v>
       </c>
       <c r="O2" t="n">
-        <v>21.64722461951303</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>32.58945119244859</v>
+        <v>38.68062560122957</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.63953250900509</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>29.90494529109833</v>
+        <v>32.04616611589456</v>
       </c>
       <c r="K3" t="n">
-        <v>19.13988639553256</v>
+        <v>22.79957383374449</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5.742459823057352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.20444079080882</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>30.58525545770977</v>
       </c>
       <c r="R3" t="n">
-        <v>44.89460795773296</v>
+        <v>46.3017442093376</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.31047085697391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.31106434786214</v>
+        <v>29.1359158427119</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>22.56601930391407</v>
+        <v>25.47360920319289</v>
       </c>
       <c r="O4" t="n">
-        <v>29.15327125498115</v>
+        <v>31.8389011340275</v>
       </c>
       <c r="P4" t="n">
-        <v>32.74373904234409</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>47.00155242833039</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>35.12399553673127</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>21.64722461951303</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>29.90494529109833</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>19.13988639553256</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.89460795773296</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>37.96713772285098</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8383,16 +8385,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>20.57219157480551</v>
+        <v>22.56601930391407</v>
       </c>
       <c r="O7" t="n">
-        <v>27.31164863678001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>45.41052227552</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>32.32750642064433</v>
+        <v>37.28507488358404</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>17.14749202420371</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>37.87261245685656</v>
+        <v>44.18035332317012</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.63953250900509</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>19.13988639553256</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>10.87667177962185</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>42.95419973026392</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>36.11471251334376</v>
+        <v>37.96713772285098</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8620,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>18.55652032594892</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>29.57482236659715</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>45.41052227552</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8705,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9094,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9103,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9337,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9559,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>25.11327702096816</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9577,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.80085904267777</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.91943921434874</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9802,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>19.6511016040668</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9814,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.80085904267777</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.91943921434874</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>25.11327702096816</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>19.6511016040668</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>15.9693999142242</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>23.06022555481493</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>27.53008583968064</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.80085904267777</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.1287403823609</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.91943921434874</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10525,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10753,13 +10755,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>15.9693999142242</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>23.06022555481493</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>27.53008583968064</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10999,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.80085904267777</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11227,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>15.9693999142242</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11236,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.80085904267777</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K46" t="n">
-        <v>25.11327702096816</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -22559,16 +22561,16 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.2163880441079</v>
+        <v>404.2587463296498</v>
       </c>
       <c r="H2" t="n">
-        <v>303.4508422388722</v>
+        <v>303.8846440306781</v>
       </c>
       <c r="I2" t="n">
-        <v>69.11834381539616</v>
+        <v>70.75136161874995</v>
       </c>
       <c r="J2" t="n">
-        <v>37.28507488358404</v>
+        <v>40.88018142109519</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22577,31 +22579,31 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.73185804160391</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N2" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>28.78411920260946</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.18035332317012</v>
+        <v>48.7545716309821</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>63.30032116317597</v>
       </c>
       <c r="S2" t="n">
-        <v>124.2523906577833</v>
+        <v>125.2176300895691</v>
       </c>
       <c r="T2" t="n">
-        <v>218.1256748333563</v>
+        <v>218.3110982283159</v>
       </c>
       <c r="U2" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4593064281693</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22638,13 +22640,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.6930234561154</v>
+        <v>105.7156871369127</v>
       </c>
       <c r="H3" t="n">
-        <v>67.84558205340525</v>
+        <v>68.06446549689447</v>
       </c>
       <c r="I3" t="n">
-        <v>12.71905894793251</v>
+        <v>13.49936550169744</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22653,7 +22655,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.785808794917685</v>
+        <v>11.70671018907476</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22662,25 +22664,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.697650023750555</v>
+        <v>9.089916217646909</v>
       </c>
       <c r="P3" t="n">
-        <v>10.87667177962185</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.69225648436268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>102.6901904232857</v>
+        <v>103.1111583538838</v>
       </c>
       <c r="T3" t="n">
-        <v>156.8327176907766</v>
+        <v>156.9240682287269</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3623561674602</v>
+        <v>195.3638471990916</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -22717,25 +22719,25 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.3874202901603</v>
+        <v>165.4064207588183</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4179569850202</v>
+        <v>146.5868884245434</v>
       </c>
       <c r="I4" t="n">
-        <v>109.4547270939081</v>
+        <v>110.0261230059151</v>
       </c>
       <c r="J4" t="n">
-        <v>37.96713772285098</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.12158188642509</v>
+        <v>32.32909088142202</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26.40839431103658</v>
+        <v>29.38680413894989</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>35.04175936076656</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.41052227552</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.85590789965747</v>
+        <v>76.71023806313595</v>
       </c>
       <c r="S4" t="n">
-        <v>181.2085322879926</v>
+        <v>181.5396586372421</v>
       </c>
       <c r="T4" t="n">
-        <v>236.3394386278895</v>
+        <v>236.4206224485193</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9608132663429</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -22796,49 +22798,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.1873416079885</v>
+        <v>404.2163880441079</v>
       </c>
       <c r="H5" t="n">
-        <v>303.153370424964</v>
+        <v>303.4508422388722</v>
       </c>
       <c r="I5" t="n">
-        <v>67.99853108690158</v>
+        <v>69.11834381539616</v>
       </c>
       <c r="J5" t="n">
-        <v>34.81979492599199</v>
+        <v>37.28507488358404</v>
       </c>
       <c r="K5" t="n">
-        <v>31.42917993820345</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>23.89450156601852</v>
+        <v>28.47824703393654</v>
       </c>
       <c r="M5" t="n">
-        <v>13.63155801534685</v>
+        <v>18.73185804160391</v>
       </c>
       <c r="N5" t="n">
-        <v>11.96466381132231</v>
+        <v>17.14749202420371</v>
       </c>
       <c r="O5" t="n">
-        <v>16.75322690579426</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>28.41253737042842</v>
+        <v>32.58945119244859</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04366499467729</v>
+        <v>44.18035332317012</v>
       </c>
       <c r="R5" t="n">
-        <v>58.81494431611752</v>
+        <v>60.63953250900509</v>
       </c>
       <c r="S5" t="n">
-        <v>123.5904949947116</v>
+        <v>124.2523906577833</v>
       </c>
       <c r="T5" t="n">
-        <v>217.9985240592434</v>
+        <v>218.1256748333563</v>
       </c>
       <c r="U5" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4559177653259</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22875,22 +22877,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6930234561154</v>
       </c>
       <c r="H6" t="n">
-        <v>67.69548664993043</v>
+        <v>67.84558205340525</v>
       </c>
       <c r="I6" t="n">
-        <v>12.18397769576295</v>
+        <v>12.71905894793251</v>
       </c>
       <c r="J6" t="n">
-        <v>28.43664143721497</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>16.63032124124894</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3.411388745407635</v>
+        <v>6.785808794917685</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22899,25 +22901,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3.697650023750555</v>
       </c>
       <c r="P6" t="n">
-        <v>7.908981644977501</v>
+        <v>10.87667177962185</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.70843422154194</v>
+        <v>27.69225648436268</v>
       </c>
       <c r="R6" t="n">
-        <v>43.92968946019</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4015191999815</v>
+        <v>102.6901904232857</v>
       </c>
       <c r="T6" t="n">
-        <v>156.7700756945035</v>
+        <v>156.8327176907766</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3613337192077</v>
+        <v>195.3623561674602</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -22954,49 +22956,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3874202901603</v>
       </c>
       <c r="H7" t="n">
-        <v>146.3021152741505</v>
+        <v>146.4179569850202</v>
       </c>
       <c r="I7" t="n">
-        <v>109.062902574934</v>
+        <v>109.4547270939081</v>
       </c>
       <c r="J7" t="n">
-        <v>37.04597107107902</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>28.6078221063498</v>
+        <v>30.12158188642509</v>
       </c>
       <c r="L7" t="n">
-        <v>24.37397299861712</v>
+        <v>26.31106434786214</v>
       </c>
       <c r="M7" t="n">
-        <v>24.3660030835062</v>
+        <v>26.40839431103658</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>29.15327125498115</v>
       </c>
       <c r="P7" t="n">
-        <v>31.16791274233458</v>
+        <v>32.74373904234409</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.31950182682881</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.27006628211034</v>
+        <v>75.85590789965747</v>
       </c>
       <c r="S7" t="n">
-        <v>180.9814683209813</v>
+        <v>181.2085322879926</v>
       </c>
       <c r="T7" t="n">
-        <v>236.2837682760401</v>
+        <v>236.3394386278895</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9597768771433</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -23033,49 +23035,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.1579769515977</v>
+        <v>404.2163880441079</v>
       </c>
       <c r="H8" t="n">
-        <v>302.8526396377018</v>
+        <v>303.4508422388722</v>
       </c>
       <c r="I8" t="n">
-        <v>66.86645017139571</v>
+        <v>69.11834381539616</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>27.69388552783373</v>
+        <v>35.12399553673127</v>
       </c>
       <c r="L8" t="n">
-        <v>19.2605385526292</v>
+        <v>28.47824703393654</v>
       </c>
       <c r="M8" t="n">
-        <v>8.475381293867869</v>
+        <v>18.73185804160391</v>
       </c>
       <c r="N8" t="n">
-        <v>6.72505475987299</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>11.80561265633085</v>
+        <v>21.64722461951303</v>
       </c>
       <c r="P8" t="n">
-        <v>24.18986307561259</v>
+        <v>32.58945119244859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>56.97036671910967</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9213478872065</v>
+        <v>124.2523906577833</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8699802758928</v>
+        <v>218.1256748333563</v>
       </c>
       <c r="U8" t="n">
-        <v>254.4512448779251</v>
+        <v>254.4559177653259</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23112,22 +23114,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.6617707663822</v>
+        <v>105.6930234561154</v>
       </c>
       <c r="H9" t="n">
-        <v>67.54374686571899</v>
+        <v>67.84558205340525</v>
       </c>
       <c r="I9" t="n">
-        <v>11.64303432334703</v>
+        <v>12.71905894793251</v>
       </c>
       <c r="J9" t="n">
-        <v>26.95225147731545</v>
+        <v>29.90494529109833</v>
       </c>
       <c r="K9" t="n">
-        <v>14.09326236962642</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.785808794917685</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23136,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3.697650023750555</v>
       </c>
       <c r="P9" t="n">
-        <v>4.908778772589713</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>23.70287805456196</v>
+        <v>27.69225648436268</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.89460795773296</v>
       </c>
       <c r="S9" t="n">
-        <v>102.1096854188119</v>
+        <v>102.6901904232857</v>
       </c>
       <c r="T9" t="n">
-        <v>156.7067474194398</v>
+        <v>156.8327176907766</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3603000694515</v>
+        <v>195.3623561674602</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -23191,49 +23193,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.3612190849339</v>
+        <v>165.3874202901603</v>
       </c>
       <c r="H10" t="n">
-        <v>146.1850044512799</v>
+        <v>146.4179569850202</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6667853949175</v>
+        <v>109.4547270939081</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>27.07747822466578</v>
+        <v>30.12158188642509</v>
       </c>
       <c r="L10" t="n">
-        <v>22.41565970901928</v>
+        <v>26.31106434786214</v>
       </c>
       <c r="M10" t="n">
-        <v>22.30123629540936</v>
+        <v>26.40839431103658</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>22.56601930391407</v>
       </c>
       <c r="O10" t="n">
-        <v>25.44984999261544</v>
+        <v>29.15327125498115</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>32.74373904234409</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.21652862697032</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>74.67780643556814</v>
+        <v>75.85590789965747</v>
       </c>
       <c r="S10" t="n">
-        <v>180.7519167387287</v>
+        <v>181.2085322879926</v>
       </c>
       <c r="T10" t="n">
-        <v>236.2274880237403</v>
+        <v>236.3394386278895</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9583477204947</v>
+        <v>279.9597768771433</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23270,49 +23272,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H11" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I11" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J11" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K11" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L11" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M11" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P11" t="n">
-        <v>18.77004728651482</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23349,19 +23351,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H12" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I12" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J12" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K12" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R12" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S12" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T12" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U12" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -23428,49 +23430,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H13" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I13" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J13" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K13" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L13" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N13" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O13" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P13" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R13" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S13" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T13" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23507,49 +23509,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H14" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I14" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J14" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K14" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L14" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M14" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P14" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S14" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23586,19 +23588,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H15" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I15" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J15" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K15" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R15" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S15" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T15" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U15" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -23665,49 +23667,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H16" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I16" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J16" t="n">
-        <v>34.91943921434874</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L16" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M16" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P16" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S16" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T16" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23744,49 +23746,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H17" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I17" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J17" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K17" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L17" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M17" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P17" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S17" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23823,19 +23825,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H18" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I18" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J18" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K18" t="n">
-        <v>10.83693929797212</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R18" t="n">
-        <v>41.70215558211665</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T18" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U18" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23902,49 +23904,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H19" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I19" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J19" t="n">
-        <v>34.91943921434874</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L19" t="n">
-        <v>19.90215841909198</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N19" t="n">
-        <v>15.9693999142242</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O19" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P19" t="n">
-        <v>27.53008583968064</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R19" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S19" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T19" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23981,49 +23983,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H20" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I20" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J20" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K20" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L20" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M20" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P20" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S20" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24060,19 +24062,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H21" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I21" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J21" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K21" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R21" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S21" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T21" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U21" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -24139,49 +24141,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H22" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I22" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J22" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L22" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N22" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O22" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P22" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R22" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S22" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T22" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24218,49 +24220,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H23" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I23" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J23" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K23" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L23" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M23" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P23" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S23" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24297,19 +24299,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H24" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I24" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J24" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K24" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R24" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S24" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T24" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U24" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -24376,49 +24378,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H25" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I25" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K25" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L25" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N25" t="n">
-        <v>15.9693999142242</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O25" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P25" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R25" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S25" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T25" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24455,49 +24457,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H26" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I26" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J26" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K26" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L26" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M26" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P26" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R26" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S26" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24534,19 +24536,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H27" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I27" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J27" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K27" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R27" t="n">
-        <v>41.70215558211665</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T27" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U27" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -24613,49 +24615,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H28" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I28" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L28" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R28" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S28" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T28" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24692,49 +24694,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H29" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I29" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J29" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K29" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L29" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M29" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P29" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S29" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24771,19 +24773,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H30" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I30" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J30" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K30" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R30" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S30" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T30" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U30" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -24850,49 +24852,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H31" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I31" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J31" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K31" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L31" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M31" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N31" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O31" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P31" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R31" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S31" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T31" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24929,49 +24931,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H32" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I32" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J32" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K32" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L32" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M32" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P32" t="n">
-        <v>18.77004728651482</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S32" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -25008,19 +25010,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H33" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I33" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J33" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K33" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R33" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S33" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T33" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U33" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -25087,49 +25089,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H34" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I34" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K34" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L34" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M34" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N34" t="n">
-        <v>15.9693999142242</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O34" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P34" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.80085904267777</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S34" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T34" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25166,49 +25168,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H35" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I35" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J35" t="n">
-        <v>29.1286462554515</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K35" t="n">
-        <v>22.89962335916383</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L35" t="n">
-        <v>13.31283239473389</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M35" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.455334146684066</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P35" t="n">
-        <v>18.77004728651484</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S35" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25245,19 +25247,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H36" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I36" t="n">
-        <v>30.71419023103866</v>
+        <v>30.51932592171037</v>
       </c>
       <c r="J36" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K36" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R36" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S36" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T36" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U36" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -25324,49 +25326,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I37" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>25.11327702096817</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L37" t="n">
-        <v>19.90215841909199</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M37" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R37" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S37" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T37" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25403,49 +25405,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H38" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I38" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J38" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K38" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L38" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M38" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P38" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S38" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25482,19 +25484,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H39" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I39" t="n">
-        <v>30.71419023103866</v>
+        <v>30.51932592171037</v>
       </c>
       <c r="J39" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K39" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R39" t="n">
-        <v>41.70215558211665</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T39" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U39" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -25561,49 +25563,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I40" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J40" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K40" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L40" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M40" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N40" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O40" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P40" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R40" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S40" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T40" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25640,49 +25642,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H41" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I41" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J41" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K41" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L41" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M41" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P41" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R41" t="n">
-        <v>54.60284554970459</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25719,19 +25721,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H42" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I42" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J42" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K42" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R42" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S42" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T42" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U42" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -25798,49 +25800,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I43" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J43" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K43" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L43" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M43" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O43" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P43" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R43" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S43" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T43" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25877,49 +25879,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1202873224108</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H44" t="n">
-        <v>302.4666507227926</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I44" t="n">
-        <v>65.41342074217175</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J44" t="n">
-        <v>29.12864625545149</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K44" t="n">
-        <v>22.89962335916381</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L44" t="n">
-        <v>13.31283239473387</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M44" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5.455334146684052</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>18.77004728651482</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.80255651301093</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S44" t="n">
-        <v>122.0624954621124</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7049939241276</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25956,19 +25958,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.6416050369546</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H45" t="n">
-        <v>67.34898837361527</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I45" t="n">
-        <v>10.94873179700088</v>
+        <v>10.35227728333644</v>
       </c>
       <c r="J45" t="n">
-        <v>25.04703227731259</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K45" t="n">
-        <v>10.83693929797212</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.1287403823609</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R45" t="n">
-        <v>41.70215558211665</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>101.7351158393118</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T45" t="n">
-        <v>156.6254653784574</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U45" t="n">
-        <v>195.358973376726</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26035,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I46" t="n">
-        <v>108.158367743757</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J46" t="n">
-        <v>34.91943921434874</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L46" t="n">
-        <v>19.90215841909198</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M46" t="n">
-        <v>19.6511016040668</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N46" t="n">
-        <v>15.9693999142242</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O46" t="n">
-        <v>23.06022555481493</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P46" t="n">
-        <v>27.53008583968064</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.80085904267777</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R46" t="n">
-        <v>73.91763905266609</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S46" t="n">
-        <v>180.457286558174</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T46" t="n">
-        <v>236.1552521422272</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>132770.3114311477</v>
+        <v>125114.4044939667</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>104308.9818024376</v>
+        <v>115613.6167745416</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>124646.7735935965</v>
+        <v>124198.4018576738</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>122976.1392739995</v>
+        <v>127091.8337401423</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>125402.4901501894</v>
+        <v>121007.1387195676</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>122976.1392739995</v>
+        <v>124370.908155711</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125786.5329886727</v>
+        <v>117175.4451393998</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>127023.7380681655</v>
+        <v>117175.4451393998</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>123267.8271929385</v>
+        <v>120243.6711169835</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>122976.1392739995</v>
+        <v>117175.4451393998</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>126010.5082573734</v>
+        <v>121317.1669094681</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>125771.6665801628</v>
+        <v>117161.374925125</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123265.1783379864</v>
+        <v>118777.0741011779</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>117796.3137651156</v>
+        <v>124689.0604165321</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>124030.8969088802</v>
+        <v>124748.4962449877</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23641.89169668115</v>
+        <v>22171.41904966038</v>
       </c>
       <c r="C2" t="n">
-        <v>19345.54771743563</v>
+        <v>20945.83967921446</v>
       </c>
       <c r="D2" t="n">
-        <v>22712.71755832112</v>
+        <v>22294.87733513525</v>
       </c>
       <c r="E2" t="n">
-        <v>22661.94229042936</v>
+        <v>23361.59097344003</v>
       </c>
       <c r="F2" t="n">
-        <v>23043.22599954491</v>
+        <v>22405.424613064</v>
       </c>
       <c r="G2" t="n">
-        <v>22661.94229042936</v>
+        <v>22934.01695302939</v>
       </c>
       <c r="H2" t="n">
-        <v>23103.57558844942</v>
+        <v>21803.30133618049</v>
       </c>
       <c r="I2" t="n">
-        <v>23297.99352951258</v>
+        <v>21803.30133618049</v>
       </c>
       <c r="J2" t="n">
-        <v>22707.77896340548</v>
+        <v>22285.45113265792</v>
       </c>
       <c r="K2" t="n">
-        <v>22661.94229042936</v>
+        <v>21803.30133618049</v>
       </c>
       <c r="L2" t="n">
-        <v>23138.77170210239</v>
+        <v>22454.1433286198</v>
       </c>
       <c r="M2" t="n">
-        <v>23101.23943854073</v>
+        <v>21801.09030250874</v>
       </c>
       <c r="N2" t="n">
-        <v>22707.36271477016</v>
+        <v>22054.98588731705</v>
       </c>
       <c r="O2" t="n">
-        <v>21847.96971046188</v>
+        <v>22984.01230830128</v>
       </c>
       <c r="P2" t="n">
-        <v>22827.68991876775</v>
+        <v>23085.20295358195</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101779.2516440874</v>
+        <v>91626.024235875</v>
       </c>
       <c r="C3" t="n">
-        <v>6579.373527278807</v>
+        <v>9594.670458340697</v>
       </c>
       <c r="D3" t="n">
-        <v>6255.640331017298</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7532.140337942944</v>
+        <v>21319.3778042296</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3609.250063079194</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5963.801421676113</v>
+        <v>6194.975045788191</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4985907373449</v>
+        <v>3267.749404209432</v>
       </c>
       <c r="D4" t="n">
-        <v>2824.015780783125</v>
+        <v>4616.787060130218</v>
       </c>
       <c r="E4" t="n">
-        <v>1425.721534423914</v>
+        <v>1788.754882600419</v>
       </c>
       <c r="F4" t="n">
-        <v>1807.005243539467</v>
+        <v>832.5885222243938</v>
       </c>
       <c r="G4" t="n">
-        <v>1425.721534423914</v>
+        <v>1361.180862189779</v>
       </c>
       <c r="H4" t="n">
-        <v>1867.354832443977</v>
+        <v>230.4652453408805</v>
       </c>
       <c r="I4" t="n">
-        <v>2061.77277350713</v>
+        <v>230.4652453408805</v>
       </c>
       <c r="J4" t="n">
-        <v>1471.558207400037</v>
+        <v>712.6150418183165</v>
       </c>
       <c r="K4" t="n">
-        <v>1425.721534423914</v>
+        <v>230.4652453408805</v>
       </c>
       <c r="L4" t="n">
-        <v>1902.550946096944</v>
+        <v>881.3072377801933</v>
       </c>
       <c r="M4" t="n">
-        <v>1865.018682535286</v>
+        <v>228.2542116691262</v>
       </c>
       <c r="N4" t="n">
-        <v>1471.141958764707</v>
+        <v>482.149796477436</v>
       </c>
       <c r="O4" t="n">
-        <v>611.7489544564335</v>
+        <v>1411.176217461669</v>
       </c>
       <c r="P4" t="n">
-        <v>1591.469162762304</v>
+        <v>927.8622212299786</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>35700.4729566144</v>
+      </c>
+      <c r="C5" t="n">
         <v>35930.17134953669</v>
       </c>
-      <c r="C5" t="n">
-        <v>36087.68291100337</v>
-      </c>
       <c r="D5" t="n">
-        <v>36246.92010144652</v>
+        <v>35930.17134953669</v>
       </c>
       <c r="E5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="F5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="G5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="H5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="I5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="J5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="K5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="L5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="M5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="N5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="O5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="P5" t="n">
-        <v>2823.701538119219</v>
+        <v>2999.279511390021</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120031.3327186191</v>
+        <v>-111350.0531886172</v>
       </c>
       <c r="C6" t="n">
-        <v>-23868.0073115839</v>
+        <v>-27846.75153287236</v>
       </c>
       <c r="D6" t="n">
-        <v>-22613.85865492582</v>
+        <v>-18252.08107453166</v>
       </c>
       <c r="E6" t="n">
-        <v>10880.37887994328</v>
+        <v>-2627.605346540528</v>
       </c>
       <c r="F6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="G6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="H6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="I6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="J6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="K6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="L6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="M6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="N6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="O6" t="n">
-        <v>18412.51921788623</v>
+        <v>18691.77245768908</v>
       </c>
       <c r="P6" t="n">
-        <v>18412.51921788623</v>
+        <v>15548.81115788276</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>95.08591544102765</v>
+      </c>
+      <c r="C3" t="n">
         <v>105.6225389695733</v>
       </c>
-      <c r="C3" t="n">
-        <v>112.8478399542832</v>
-      </c>
       <c r="D3" t="n">
-        <v>120.1522982314917</v>
+        <v>105.6225389695733</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="F3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="G3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="H3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="I3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="J3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="K3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="L3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="N3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="O3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="P3" t="n">
-        <v>129.5275934917073</v>
+        <v>137.581628962845</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.6225389695733</v>
+        <v>95.08591544102765</v>
       </c>
       <c r="C3" t="n">
-        <v>7.225300984709904</v>
+        <v>10.53662352854562</v>
       </c>
       <c r="D3" t="n">
-        <v>7.304458277208568</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9.375295260215537</v>
+        <v>26.53634328503827</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.422746708233461</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.3822549364463421</v>
       </c>
       <c r="H2" t="n">
-        <v>4.348570159687002</v>
+        <v>3.914768367881102</v>
       </c>
       <c r="I2" t="n">
-        <v>16.36990124070141</v>
+        <v>14.73688343734762</v>
       </c>
       <c r="J2" t="n">
-        <v>36.0385164497239</v>
+        <v>32.44340991221275</v>
       </c>
       <c r="K2" t="n">
-        <v>54.01239413648585</v>
+        <v>48.62426137198642</v>
       </c>
       <c r="L2" t="n">
-        <v>67.00715102890828</v>
+        <v>60.32269588325618</v>
       </c>
       <c r="M2" t="n">
-        <v>74.55836641544154</v>
+        <v>67.12062210928381</v>
       </c>
       <c r="N2" t="n">
-        <v>75.76479873241561</v>
+        <v>68.20670394746197</v>
       </c>
       <c r="O2" t="n">
-        <v>71.5425510062701</v>
+        <v>64.40565642317367</v>
       </c>
       <c r="P2" t="n">
-        <v>61.05991208843557</v>
+        <v>54.96873767965459</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.85345107598193</v>
+        <v>41.27923276816995</v>
       </c>
       <c r="R2" t="n">
-        <v>26.67261030571842</v>
+        <v>24.01182165154755</v>
       </c>
       <c r="S2" t="n">
-        <v>9.675873796056891</v>
+        <v>8.710634364271028</v>
       </c>
       <c r="T2" t="n">
-        <v>1.858744379253495</v>
+        <v>1.673320984293863</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.03058039491570735</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2045244218920218</v>
       </c>
       <c r="H3" t="n">
-        <v>2.194158781235853</v>
+        <v>1.975275337746631</v>
       </c>
       <c r="I3" t="n">
-        <v>7.822046518029719</v>
+        <v>7.041739964264785</v>
       </c>
       <c r="J3" t="n">
-        <v>21.46429350890168</v>
+        <v>19.32307268410544</v>
       </c>
       <c r="K3" t="n">
-        <v>36.68589638908283</v>
+        <v>33.0262089508709</v>
       </c>
       <c r="L3" t="n">
-        <v>49.32871501593137</v>
+        <v>44.40781362177429</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>51.82182391536007</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>54.05382897624944</v>
+        <v>48.66156278235309</v>
       </c>
       <c r="P3" t="n">
-        <v>43.3829632231819</v>
+        <v>39.05519421199493</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.00036202047604</v>
+        <v>26.10736304712895</v>
       </c>
       <c r="R3" t="n">
-        <v>14.10559114767245</v>
+        <v>12.69845489606781</v>
       </c>
       <c r="S3" t="n">
-        <v>4.219919363548515</v>
+        <v>3.798951432950489</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9157274840852623</v>
+        <v>0.8243769461349471</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01345555407184354</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.1714664048936564</v>
       </c>
       <c r="H4" t="n">
-        <v>1.693423657577749</v>
+        <v>1.52449221805451</v>
       </c>
       <c r="I4" t="n">
-        <v>5.72785834280899</v>
+        <v>5.15646243080196</v>
       </c>
       <c r="J4" t="n">
-        <v>13.46600796010445</v>
+        <v>12.12267482598151</v>
       </c>
       <c r="K4" t="n">
-        <v>22.12878767264174</v>
+        <v>19.9212786776448</v>
       </c>
       <c r="L4" t="n">
-        <v>28.31722954603936</v>
+        <v>25.49237805118961</v>
       </c>
       <c r="M4" t="n">
-        <v>29.85654818774346</v>
+        <v>26.87813835983015</v>
       </c>
       <c r="N4" t="n">
-        <v>29.14662620450537</v>
+        <v>26.23903630522655</v>
       </c>
       <c r="O4" t="n">
-        <v>26.92162681801517</v>
+        <v>24.23599693896883</v>
       </c>
       <c r="P4" t="n">
-        <v>23.03610259756069</v>
+        <v>20.73808227913822</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.94900338440556</v>
+        <v>14.35797323159518</v>
       </c>
       <c r="R4" t="n">
-        <v>8.564083241696872</v>
+        <v>7.709753078218404</v>
       </c>
       <c r="S4" t="n">
-        <v>3.31931815089626</v>
+        <v>2.98819180164672</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.7326291845456226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.009352712994199451</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.4246132219882339</v>
       </c>
       <c r="H5" t="n">
-        <v>4.646041973595184</v>
+        <v>4.348570159687002</v>
       </c>
       <c r="I5" t="n">
-        <v>17.48971396919599</v>
+        <v>16.36990124070141</v>
       </c>
       <c r="J5" t="n">
-        <v>38.50379640731595</v>
+        <v>36.0385164497239</v>
       </c>
       <c r="K5" t="n">
-        <v>57.70720973501367</v>
+        <v>54.01239413648585</v>
       </c>
       <c r="L5" t="n">
-        <v>71.5908964968263</v>
+        <v>67.00715102890828</v>
       </c>
       <c r="M5" t="n">
-        <v>79.6586664416986</v>
+        <v>74.55836641544154</v>
       </c>
       <c r="N5" t="n">
-        <v>80.94762694529702</v>
+        <v>75.76479873241561</v>
       </c>
       <c r="O5" t="n">
-        <v>76.43654871998886</v>
+        <v>71.5425510062701</v>
       </c>
       <c r="P5" t="n">
-        <v>65.23682591045574</v>
+        <v>61.05991208843557</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.99013940447476</v>
+        <v>45.85345107598193</v>
       </c>
       <c r="R5" t="n">
-        <v>28.497198498606</v>
+        <v>26.67261030571842</v>
       </c>
       <c r="S5" t="n">
-        <v>10.33776945912856</v>
+        <v>9.675873796056891</v>
       </c>
       <c r="T5" t="n">
-        <v>1.985895153366329</v>
+        <v>1.858744379253495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.03396905775905871</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2271881026892708</v>
       </c>
       <c r="H6" t="n">
-        <v>2.344254184710675</v>
+        <v>2.194158781235853</v>
       </c>
       <c r="I6" t="n">
-        <v>8.357127770199273</v>
+        <v>7.822046518029719</v>
       </c>
       <c r="J6" t="n">
-        <v>22.93259736278504</v>
+        <v>21.46429350890168</v>
       </c>
       <c r="K6" t="n">
-        <v>39.19546154336646</v>
+        <v>36.68589638908283</v>
       </c>
       <c r="L6" t="n">
-        <v>52.70313506544142</v>
+        <v>49.32871501593137</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -31379,25 +31381,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>54.05382897624944</v>
       </c>
       <c r="P6" t="n">
-        <v>46.35065335782625</v>
+        <v>43.3829632231819</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.98418428329678</v>
+        <v>29.00036202047604</v>
       </c>
       <c r="R6" t="n">
-        <v>15.07050964521541</v>
+        <v>14.10559114767245</v>
       </c>
       <c r="S6" t="n">
-        <v>4.508590586852725</v>
+        <v>4.219919363548515</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9783694803583604</v>
+        <v>0.9157274840852623</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0159690339557948</v>
+        <v>0.01494658570324151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.1904668735516895</v>
       </c>
       <c r="H7" t="n">
-        <v>1.809265368447361</v>
+        <v>1.693423657577749</v>
       </c>
       <c r="I7" t="n">
-        <v>6.119682861783096</v>
+        <v>5.72785834280899</v>
       </c>
       <c r="J7" t="n">
-        <v>14.38717461187639</v>
+        <v>13.46600796010445</v>
       </c>
       <c r="K7" t="n">
-        <v>23.64254745271703</v>
+        <v>22.12878767264174</v>
       </c>
       <c r="L7" t="n">
-        <v>30.25432089528438</v>
+        <v>28.31722954603936</v>
       </c>
       <c r="M7" t="n">
-        <v>31.89893941527384</v>
+        <v>29.85654818774346</v>
       </c>
       <c r="N7" t="n">
-        <v>31.14045393361393</v>
+        <v>29.14662620450537</v>
       </c>
       <c r="O7" t="n">
-        <v>28.76324943621632</v>
+        <v>26.92162681801517</v>
       </c>
       <c r="P7" t="n">
-        <v>24.61192889757021</v>
+        <v>23.03610259756069</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.04002383309676</v>
+        <v>15.94900338440556</v>
       </c>
       <c r="R7" t="n">
-        <v>9.149924859244006</v>
+        <v>8.564083241696872</v>
       </c>
       <c r="S7" t="n">
-        <v>3.546382117907553</v>
+        <v>3.31931815089626</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.8138130051754003</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01038910219372853</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4830243144984589</v>
+        <v>0.4246132219882339</v>
       </c>
       <c r="H8" t="n">
-        <v>4.946772760857344</v>
+        <v>4.348570159687002</v>
       </c>
       <c r="I8" t="n">
-        <v>18.62179488470185</v>
+        <v>16.36990124070141</v>
       </c>
       <c r="J8" t="n">
-        <v>40.99608491266361</v>
+        <v>36.0385164497239</v>
       </c>
       <c r="K8" t="n">
-        <v>61.4425041453834</v>
+        <v>54.01239413648585</v>
       </c>
       <c r="L8" t="n">
-        <v>76.22485951021562</v>
+        <v>67.00715102890828</v>
       </c>
       <c r="M8" t="n">
-        <v>84.81484316317758</v>
+        <v>74.55836641544154</v>
       </c>
       <c r="N8" t="n">
-        <v>86.18723599674634</v>
+        <v>75.76479873241561</v>
       </c>
       <c r="O8" t="n">
-        <v>81.38416296945228</v>
+        <v>71.5425510062701</v>
       </c>
       <c r="P8" t="n">
-        <v>69.45950020527157</v>
+        <v>61.05991208843557</v>
       </c>
       <c r="Q8" t="n">
-        <v>52.16119194229549</v>
+        <v>45.85345107598193</v>
       </c>
       <c r="R8" t="n">
-        <v>30.34177609561385</v>
+        <v>26.67261030571842</v>
       </c>
       <c r="S8" t="n">
-        <v>11.00691656663364</v>
+        <v>9.675873796056891</v>
       </c>
       <c r="T8" t="n">
-        <v>2.114438936717005</v>
+        <v>1.858744379253495</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03864194515987671</v>
+        <v>0.03396905775905871</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2584407924224539</v>
+        <v>0.2271881026892708</v>
       </c>
       <c r="H9" t="n">
-        <v>2.495993968922122</v>
+        <v>2.194158781235853</v>
       </c>
       <c r="I9" t="n">
-        <v>8.898071142615191</v>
+        <v>7.822046518029719</v>
       </c>
       <c r="J9" t="n">
-        <v>24.41698732268457</v>
+        <v>21.46429350890168</v>
       </c>
       <c r="K9" t="n">
-        <v>41.73252041498898</v>
+        <v>36.68589638908283</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>49.32871501593137</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -31616,25 +31618,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>54.05382897624944</v>
       </c>
       <c r="P9" t="n">
-        <v>49.35085623021403</v>
+        <v>43.3829632231819</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.98974045027676</v>
+        <v>29.00036202047604</v>
       </c>
       <c r="R9" t="n">
-        <v>16.04599937514149</v>
+        <v>14.10559114767245</v>
       </c>
       <c r="S9" t="n">
-        <v>4.800424368022332</v>
+        <v>4.219919363548515</v>
       </c>
       <c r="T9" t="n">
-        <v>1.041697755422084</v>
+        <v>0.9157274840852623</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01700268371200355</v>
+        <v>0.01494658570324151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2166680787780998</v>
+        <v>0.1904668735516895</v>
       </c>
       <c r="H10" t="n">
-        <v>1.926376191318016</v>
+        <v>1.693423657577749</v>
       </c>
       <c r="I10" t="n">
-        <v>6.515800041799586</v>
+        <v>5.72785834280899</v>
       </c>
       <c r="J10" t="n">
-        <v>15.31843316961166</v>
+        <v>13.46600796010445</v>
       </c>
       <c r="K10" t="n">
-        <v>25.17289133440105</v>
+        <v>22.12878767264174</v>
       </c>
       <c r="L10" t="n">
-        <v>32.21263418488223</v>
+        <v>28.31722954603936</v>
       </c>
       <c r="M10" t="n">
-        <v>33.96370620337068</v>
+        <v>29.85654818774346</v>
       </c>
       <c r="N10" t="n">
-        <v>33.15612518247052</v>
+        <v>29.14662620450537</v>
       </c>
       <c r="O10" t="n">
-        <v>30.62504808038089</v>
+        <v>26.92162681801517</v>
       </c>
       <c r="P10" t="n">
-        <v>26.20501927330763</v>
+        <v>23.03610259756069</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.14299703295525</v>
+        <v>15.94900338440556</v>
       </c>
       <c r="R10" t="n">
-        <v>9.742184705786196</v>
+        <v>8.564083241696872</v>
       </c>
       <c r="S10" t="n">
-        <v>3.775933700160156</v>
+        <v>3.31931815089626</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9257636093246082</v>
+        <v>0.8138130051754003</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01181825884244182</v>
+        <v>0.01038910219372853</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H11" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I11" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J11" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K11" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L11" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M11" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P11" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R11" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S11" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T11" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H12" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I12" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J12" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K12" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -31856,22 +31858,22 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R12" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S12" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T12" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H13" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I13" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J13" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K13" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L13" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M13" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N13" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O13" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P13" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R13" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S13" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H14" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I14" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J14" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K14" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L14" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M14" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P14" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R14" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S14" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T14" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H15" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I15" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J15" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K15" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
@@ -32093,22 +32095,22 @@
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R15" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S15" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T15" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H16" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I16" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J16" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K16" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L16" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M16" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N16" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O16" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P16" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R16" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S16" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H17" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I17" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J17" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K17" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L17" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M17" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P17" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R17" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S17" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T17" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H18" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I18" t="n">
-        <v>9.592373668961342</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J18" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K18" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -32330,22 +32332,22 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.56387812247782</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R18" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S18" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T18" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H19" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I19" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J19" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K19" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L19" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M19" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N19" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O19" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P19" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R19" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S19" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H20" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I20" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J20" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K20" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L20" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M20" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P20" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R20" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S20" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T20" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H21" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I21" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J21" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K21" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -32567,22 +32569,22 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R21" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S21" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T21" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H22" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I22" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J22" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K22" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L22" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M22" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N22" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O22" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P22" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R22" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S22" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H23" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I23" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J23" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K23" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L23" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M23" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P23" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R23" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S23" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T23" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H24" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I24" t="n">
-        <v>9.592373668961342</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J24" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K24" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -32804,22 +32806,22 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.56387812247782</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R24" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S24" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T24" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H25" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I25" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J25" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K25" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L25" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M25" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N25" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O25" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P25" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R25" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S25" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H26" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I26" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J26" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K26" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L26" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M26" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P26" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R26" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S26" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T26" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H27" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I27" t="n">
-        <v>9.592373668961342</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J27" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K27" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -33041,22 +33043,22 @@
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.56387812247782</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R27" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S27" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T27" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H28" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I28" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J28" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K28" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L28" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M28" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N28" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O28" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P28" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R28" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S28" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H29" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I29" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J29" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K29" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L29" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M29" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P29" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R29" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S29" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T29" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H30" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I30" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J30" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K30" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
@@ -33278,22 +33280,22 @@
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R30" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S30" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T30" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H31" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I31" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J31" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K31" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L31" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M31" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N31" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O31" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P31" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R31" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S31" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H32" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I32" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J32" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K32" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L32" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M32" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P32" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R32" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S32" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T32" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H33" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I33" t="n">
-        <v>9.592373668961342</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J33" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K33" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -33515,22 +33517,22 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.56387812247782</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R33" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S33" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T33" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H34" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I34" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J34" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K34" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L34" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M34" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N34" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O34" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P34" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R34" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S34" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5207139436852549</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H35" t="n">
-        <v>5.332761675766618</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I35" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J35" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K35" t="n">
-        <v>66.2367663140533</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L35" t="n">
-        <v>82.17256566811093</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M35" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>87.73444147909906</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P35" t="n">
-        <v>74.87931599436932</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.23124788614111</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R35" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S35" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T35" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2786065218500873</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H36" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I36" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J36" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K36" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
@@ -33752,22 +33754,22 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R36" t="n">
-        <v>17.29804352328876</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S36" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T36" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01832937643750575</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H37" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I37" t="n">
-        <v>7.024217692960127</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J37" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K37" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L37" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M37" t="n">
-        <v>36.61384089471324</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N37" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O37" t="n">
-        <v>33.01467251818139</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P37" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.55866661724779</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R37" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S37" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9979994908377441</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H38" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I38" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J38" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K38" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L38" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M38" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P38" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R38" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S38" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T38" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H39" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I39" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J39" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K39" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
@@ -33989,22 +33991,22 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R39" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S39" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T39" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H40" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I40" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J40" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K40" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L40" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M40" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N40" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O40" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P40" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R40" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S40" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H41" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I41" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J41" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K41" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L41" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M41" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P41" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R41" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S41" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T41" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H42" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I42" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J42" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K42" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
@@ -34226,22 +34228,22 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R42" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S42" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T42" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H43" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I43" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J43" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K43" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L43" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M43" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N43" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O43" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P43" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R43" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S43" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H44" t="n">
-        <v>5.332761675766619</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I44" t="n">
-        <v>20.07482431392581</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J44" t="n">
-        <v>44.19494507785645</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K44" t="n">
-        <v>66.23676631405331</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L44" t="n">
-        <v>82.17256566811095</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M44" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>87.73444147909908</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>74.87931599436934</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.23124788614112</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R44" t="n">
-        <v>32.70929726501893</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S44" t="n">
-        <v>11.86576899172776</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T44" t="n">
-        <v>2.279425288482205</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H45" t="n">
-        <v>2.690752461025844</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I45" t="n">
-        <v>9.592373668961342</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J45" t="n">
-        <v>26.32220652268742</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K45" t="n">
-        <v>44.98884348664328</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -34463,22 +34465,22 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.56387812247782</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R45" t="n">
-        <v>17.29804352328877</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S45" t="n">
-        <v>5.174993947522452</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T45" t="n">
-        <v>1.122979796404518</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H46" t="n">
-        <v>2.076688302211308</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I46" t="n">
-        <v>7.024217692960128</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J46" t="n">
-        <v>16.51370646860668</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K46" t="n">
-        <v>27.13709253809866</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L46" t="n">
-        <v>34.72613547480952</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M46" t="n">
-        <v>36.61384089471325</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N46" t="n">
-        <v>35.74324559419524</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O46" t="n">
-        <v>33.0146725181814</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P46" t="n">
-        <v>28.24975580022414</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.5586666172478</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R46" t="n">
-        <v>10.50235208868826</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S46" t="n">
-        <v>4.070563880714799</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53511.73660780564</v>
+        <v>-65196.94988830973</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26093951.53785376</v>
+        <v>25321344.69513537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21394286.60464059</v>
+        <v>20626993.4404814</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1400766.40864448</v>
+        <v>1815821.510572718</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.88018142109519</v>
       </c>
       <c r="K2" t="n">
         <v>40.5121283012307</v>
@@ -7987,22 +7987,22 @@
         <v>35.16270217958864</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N2" t="n">
         <v>24.70558680915735</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>28.78411920260946</v>
       </c>
       <c r="P2" t="n">
         <v>38.68062560122957</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>48.7545716309821</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>63.30032116317597</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>22.79957383374449</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>11.70671018907476</v>
       </c>
       <c r="M3" t="n">
         <v>5.742459823057352</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9.089916217646909</v>
       </c>
       <c r="P3" t="n">
         <v>15.20444079080882</v>
@@ -8139,13 +8139,13 @@
         <v>39.31047085697391</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>32.32909088142202</v>
       </c>
       <c r="L4" t="n">
         <v>29.1359158427119</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>29.38680413894989</v>
       </c>
       <c r="N4" t="n">
         <v>25.47360920319289</v>
@@ -8154,7 +8154,7 @@
         <v>31.8389011340275</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>35.04175936076656</v>
       </c>
       <c r="Q4" t="n">
         <v>47.00155242833039</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>37.28507488358404</v>
       </c>
       <c r="K5" t="n">
         <v>35.12399553673127</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>28.47824703393654</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>18.73185804160391</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>17.14749202420371</v>
       </c>
       <c r="O5" t="n">
         <v>21.64722461951303</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>32.58945119244859</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>44.18035332317012</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.63953250900509</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>19.13988639553256</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.785808794917685</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3.697650023750555</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>10.87667177962185</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>27.69225648436268</v>
       </c>
       <c r="R6" t="n">
         <v>44.89460795773296</v>
@@ -8376,22 +8376,22 @@
         <v>37.96713772285098</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>30.12158188642509</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>26.31106434786214</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>26.40839431103658</v>
       </c>
       <c r="N7" t="n">
         <v>22.56601930391407</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>29.15327125498115</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>32.74373904234409</v>
       </c>
       <c r="Q7" t="n">
         <v>45.41052227552</v>
@@ -8455,22 +8455,22 @@
         <v>37.28507488358404</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>35.12399553673127</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>28.47824703393654</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>18.73185804160391</v>
       </c>
       <c r="N8" t="n">
         <v>17.14749202420371</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>21.64722461951303</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>32.58945119244859</v>
       </c>
       <c r="Q8" t="n">
         <v>44.18035332317012</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>29.90494529109833</v>
       </c>
       <c r="K9" t="n">
         <v>19.13988639553256</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.785808794917678</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3.697650023750555</v>
       </c>
       <c r="P9" t="n">
-        <v>10.87667177962185</v>
+        <v>10.87667177962184</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>27.69225648436267</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.89460795773296</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>37.96713772285098</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>30.12158188642509</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>26.31106434786214</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>26.40839431103658</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>22.56601930391407</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>29.15327125498115</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>32.74373904234409</v>
       </c>
       <c r="Q10" t="n">
         <v>45.41052227552</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P11" t="n">
         <v>17.24891115298081</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R11" t="n">
         <v>53.93837241300997</v>
@@ -8768,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>34.58397146501913</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N16" t="n">
         <v>15.2432936233067</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q16" t="n">
         <v>41.40353443947922</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K18" t="n">
         <v>9.923013275483001</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R18" t="n">
         <v>41.35075441487444</v>
@@ -9324,25 +9324,25 @@
         <v>34.58397146501913</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L19" t="n">
         <v>19.19671421534549</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P19" t="n">
-        <v>26.95620607407936</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R27" t="n">
         <v>41.35075441487444</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P32" t="n">
         <v>17.24891115298081</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q34" t="n">
         <v>41.40353443947923</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>34.58397146501913</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R39" t="n">
         <v>41.35075441487444</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R41" t="n">
         <v>53.93837241300997</v>
@@ -11138,10 +11138,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R45" t="n">
-        <v>40.62656193938621</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.89261570846287</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>70.75136161874995</v>
       </c>
       <c r="J2" t="n">
-        <v>40.88018142109519</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22579,22 +22579,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>26.16960234776164</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.78411920260946</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.7545716309821</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>63.30032116317597</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>125.2176300895691</v>
@@ -22655,7 +22655,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>11.70671018907476</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22664,7 +22664,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.089916217646909</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -22731,13 +22731,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>32.32909088142202</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.38680413894989</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>35.04175936076656</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -22807,31 +22807,31 @@
         <v>69.11834381539616</v>
       </c>
       <c r="J5" t="n">
-        <v>37.28507488358404</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>28.47824703393654</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>18.73185804160391</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>17.14749202420371</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>32.58945119244859</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.18035332317012</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.63953250900509</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>124.2523906577833</v>
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.785808794917685</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22901,13 +22901,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>10.87667177962185</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.69225648436268</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -22968,22 +22968,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>30.12158188642509</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>26.31106434786214</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>26.40839431103658</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>29.15327125498115</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>32.74373904234409</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -23047,22 +23047,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.12399553673127</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>28.47824703393654</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>18.73185804160391</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>21.64722461951303</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>32.58945119244859</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -23123,13 +23123,13 @@
         <v>12.71905894793251</v>
       </c>
       <c r="J9" t="n">
-        <v>29.90494529109833</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.785808794917685</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23138,16 +23138,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.697650023750555</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.69225648436268</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.89460795773296</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>102.6901904232857</v>
@@ -23205,22 +23205,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>30.12158188642509</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>26.31106434786214</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>26.40839431103658</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>22.56601930391407</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>29.15327125498115</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>32.74373904234409</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -23281,13 +23281,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J11" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>11.64353751452477</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,13 +23296,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23360,10 +23360,10 @@
         <v>10.7538674876726</v>
       </c>
       <c r="J12" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.40627785259141</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.35075441487444</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>101.6299884061901</v>
@@ -23439,28 +23439,28 @@
         <v>108.0156742482211</v>
       </c>
       <c r="J13" t="n">
-        <v>34.58397146501913</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>15.2432936233067</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>26.95620607407935</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.40353443947922</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>73.70428898346404</v>
@@ -23518,13 +23518,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J14" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>11.64353751452477</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,16 +23533,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>53.93837241300997</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>121.8214482553398</v>
@@ -23597,10 +23597,10 @@
         <v>10.7538674876726</v>
       </c>
       <c r="J15" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,10 +23618,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.40627785259141</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.35075441487444</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>101.6299884061901</v>
@@ -23679,22 +23679,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>26.95620607407935</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -23755,13 +23755,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J17" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>11.64353751452478</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,16 +23770,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>53.93837241300997</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>121.8214482553398</v>
@@ -23834,7 +23834,7 @@
         <v>10.7538674876726</v>
       </c>
       <c r="J18" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.40627785259142</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -23916,25 +23916,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>15.24329362330671</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.40353443947923</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>73.70428898346404</v>
@@ -23992,13 +23992,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J20" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>11.64353751452477</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,16 +24007,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>53.93837241300997</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>121.8214482553398</v>
@@ -24071,10 +24071,10 @@
         <v>10.7538674876726</v>
       </c>
       <c r="J21" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.40627785259141</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.35075441487444</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>101.6299884061901</v>
@@ -24150,28 +24150,28 @@
         <v>108.0156742482211</v>
       </c>
       <c r="J22" t="n">
-        <v>34.58397146501913</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>15.2432936233067</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>26.95620607407935</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.40353443947922</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>73.70428898346404</v>
@@ -24229,13 +24229,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J23" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>11.64353751452478</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,16 +24244,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>53.93837241300997</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>121.8214482553398</v>
@@ -24308,10 +24308,10 @@
         <v>10.7538674876726</v>
       </c>
       <c r="J24" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.40627785259142</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.35075441487444</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>101.6299884061901</v>
@@ -24387,28 +24387,28 @@
         <v>108.0156742482211</v>
       </c>
       <c r="J25" t="n">
-        <v>34.58397146501913</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>15.24329362330671</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>26.95620607407936</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.40353443947923</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>73.70428898346404</v>
@@ -24466,13 +24466,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J26" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>11.64353751452478</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,16 +24481,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>53.93837241300997</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>121.8214482553398</v>
@@ -24545,10 +24545,10 @@
         <v>10.7538674876726</v>
       </c>
       <c r="J27" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.40627785259142</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -24624,28 +24624,28 @@
         <v>108.0156742482211</v>
       </c>
       <c r="J28" t="n">
-        <v>34.58397146501913</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>15.24329362330671</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>26.95620607407936</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.40353443947923</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>73.70428898346404</v>
@@ -24703,13 +24703,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J29" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>11.64353751452477</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,16 +24718,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>53.93837241300997</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>121.8214482553398</v>
@@ -24782,10 +24782,10 @@
         <v>10.7538674876726</v>
       </c>
       <c r="J30" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.40627785259141</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.35075441487444</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>101.6299884061901</v>
@@ -24861,28 +24861,28 @@
         <v>108.0156742482211</v>
       </c>
       <c r="J31" t="n">
-        <v>34.58397146501913</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>15.2432936233067</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>26.95620607407935</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.40353443947922</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>73.70428898346404</v>
@@ -24940,13 +24940,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J32" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>11.64353751452478</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,16 +24955,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>53.93837241300997</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>121.8214482553398</v>
@@ -25019,10 +25019,10 @@
         <v>10.7538674876726</v>
       </c>
       <c r="J33" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,10 +25040,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.40627785259142</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.35075441487444</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>101.6299884061901</v>
@@ -25098,25 +25098,25 @@
         <v>108.0156742482211</v>
       </c>
       <c r="J34" t="n">
-        <v>34.58397146501913</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>15.24329362330671</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>26.95620607407936</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -25177,13 +25177,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J35" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>11.64353751452477</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,16 +25192,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.93837241300997</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>121.8214482553398</v>
@@ -25253,13 +25253,13 @@
         <v>67.29432707308776</v>
       </c>
       <c r="I36" t="n">
-        <v>30.51932592171037</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J36" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.40627785259141</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.35075441487444</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>101.6299884061901</v>
@@ -25338,25 +25338,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>15.2432936233067</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>26.95620607407935</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.40353443947922</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>73.70428898346404</v>
@@ -25414,13 +25414,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J38" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>11.64353751452477</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,16 +25429,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.93837241300997</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>121.8214482553398</v>
@@ -25490,13 +25490,13 @@
         <v>67.29432707308776</v>
       </c>
       <c r="I39" t="n">
-        <v>30.51932592171037</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J39" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.40627785259141</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -25572,28 +25572,28 @@
         <v>108.0156742482211</v>
       </c>
       <c r="J40" t="n">
-        <v>34.58397146501913</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>15.2432936233067</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>26.95620607407935</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.40353443947922</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>73.70428898346404</v>
@@ -25651,13 +25651,13 @@
         <v>65.00561065159138</v>
       </c>
       <c r="J41" t="n">
-        <v>28.23084788503724</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>11.64353751452477</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,13 +25666,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.66024662599554</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -25730,10 +25730,10 @@
         <v>10.7538674876726</v>
       </c>
       <c r="J42" t="n">
-        <v>24.51230971842843</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.40627785259141</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.35075441487444</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>101.6299884061901</v>
@@ -25809,28 +25809,28 @@
         <v>108.0156742482211</v>
       </c>
       <c r="J43" t="n">
-        <v>34.58397146501913</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.56200045719904</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>19.19671421534549</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>18.90730960179207</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>15.2432936233067</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>22.38954887144386</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>26.95620607407935</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.40353443947922</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>73.70428898346404</v>
@@ -25879,22 +25879,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.0879092903661</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H44" t="n">
-        <v>302.135059202114</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I44" t="n">
-        <v>64.16516666176557</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J44" t="n">
-        <v>26.38060125819129</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>18.78101626544829</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.203336102828075</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25906,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>14.11404580593616</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>30.30609330503575</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.568978994272</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>121.3246810568921</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5632590888516</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4456394650266</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25958,19 +25958,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.624281262545</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H45" t="n">
-        <v>67.18167718392239</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I45" t="n">
-        <v>10.35227728333644</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J45" t="n">
-        <v>23.41031550293732</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.039529638152509</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.91737577526663</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>101.4133343277998</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T45" t="n">
-        <v>156.5556384105519</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3578336547253</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26037,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3297891442708</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H46" t="n">
-        <v>145.9055637061116</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I46" t="n">
-        <v>107.7216013611582</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>23.42589057308062</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>17.74288471261679</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>17.37445023310241</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>13.74688222429532</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>21.00737074325346</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>25.77351390676234</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.58469968653597</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.26460201266204</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S46" t="n">
-        <v>180.2041785909909</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T46" t="n">
-        <v>236.0931964590889</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9566333600948</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>125114.4044939667</v>
+        <v>159680.2449075046</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>115613.6167745416</v>
+        <v>158632.2468862734</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>124198.4018576738</v>
+        <v>158632.2468862734</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>127091.8337401423</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>121007.1387195676</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>124370.908155711</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>117175.4451393998</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>117175.4451393998</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>120243.6711169835</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117175.4451393998</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>121317.1669094681</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117161.374925125</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>118777.0741011779</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>124689.0604165321</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>124748.4962449877</v>
+        <v>156383.7053122492</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22171.41904966038</v>
+        <v>27603.19397178779</v>
       </c>
       <c r="C2" t="n">
-        <v>20945.83967921446</v>
+        <v>27705.91012534375</v>
       </c>
       <c r="D2" t="n">
-        <v>22294.87733513525</v>
+        <v>27705.91012534375</v>
       </c>
       <c r="E2" t="n">
-        <v>23361.59097344003</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="F2" t="n">
-        <v>22405.424613064</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="G2" t="n">
-        <v>22934.01695302939</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="H2" t="n">
-        <v>21803.30133618049</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="I2" t="n">
-        <v>21803.30133618049</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="J2" t="n">
-        <v>22285.45113265792</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="K2" t="n">
-        <v>21803.30133618049</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="L2" t="n">
-        <v>22454.1433286198</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="M2" t="n">
-        <v>21801.09030250874</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="N2" t="n">
-        <v>22054.98588731705</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="O2" t="n">
-        <v>22984.01230830128</v>
+        <v>27964.59936334253</v>
       </c>
       <c r="P2" t="n">
-        <v>23085.20295358195</v>
+        <v>27964.59936334253</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91626.024235875</v>
+        <v>91626.02423587498</v>
       </c>
       <c r="C3" t="n">
         <v>9594.670458340697</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3609.250063079194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6194.975045788191</v>
+        <v>11626.7499679156</v>
       </c>
       <c r="C4" t="n">
-        <v>3267.749404209432</v>
+        <v>10027.81985033872</v>
       </c>
       <c r="D4" t="n">
-        <v>4616.787060130218</v>
+        <v>10027.81985033872</v>
       </c>
       <c r="E4" t="n">
-        <v>1788.754882600419</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="F4" t="n">
-        <v>832.5885222243938</v>
+        <v>6391.763272502924</v>
       </c>
       <c r="G4" t="n">
-        <v>1361.180862189779</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="H4" t="n">
-        <v>230.4652453408805</v>
+        <v>6391.763272502924</v>
       </c>
       <c r="I4" t="n">
-        <v>230.4652453408805</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="J4" t="n">
-        <v>712.6150418183165</v>
+        <v>6391.763272502924</v>
       </c>
       <c r="K4" t="n">
-        <v>230.4652453408805</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="L4" t="n">
-        <v>881.3072377801933</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="M4" t="n">
-        <v>228.2542116691262</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="N4" t="n">
-        <v>482.149796477436</v>
+        <v>6391.763272502924</v>
       </c>
       <c r="O4" t="n">
-        <v>1411.176217461669</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="P4" t="n">
-        <v>927.8622212299786</v>
+        <v>6391.763272502924</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>2881.063633150532</v>
       </c>
       <c r="P5" t="n">
-        <v>2999.279511390021</v>
+        <v>2881.063633150532</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111350.0531886172</v>
+        <v>-112727.9389919255</v>
       </c>
       <c r="C6" t="n">
-        <v>-27846.75153287236</v>
+        <v>-29223.70355296653</v>
       </c>
       <c r="D6" t="n">
-        <v>-18252.08107453166</v>
+        <v>-19629.03309462583</v>
       </c>
       <c r="E6" t="n">
-        <v>-2627.605346540528</v>
+        <v>-4002.205646289257</v>
       </c>
       <c r="F6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="G6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="H6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="I6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="J6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="K6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="L6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="M6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="N6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="O6" t="n">
-        <v>18691.77245768908</v>
+        <v>17317.17215794035</v>
       </c>
       <c r="P6" t="n">
-        <v>15548.81115788276</v>
+        <v>17317.17215794035</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>132.1588822546115</v>
       </c>
       <c r="P3" t="n">
-        <v>137.581628962845</v>
+        <v>132.1588822546115</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.422746708233461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31600,7 +31600,7 @@
         <v>2.194158781235853</v>
       </c>
       <c r="I9" t="n">
-        <v>7.822046518029719</v>
+        <v>7.82204651802972</v>
       </c>
       <c r="J9" t="n">
         <v>21.46429350890168</v>
@@ -31624,13 +31624,13 @@
         <v>43.3829632231819</v>
       </c>
       <c r="Q9" t="n">
-        <v>29.00036202047604</v>
+        <v>29.00036202047605</v>
       </c>
       <c r="R9" t="n">
         <v>14.10559114767245</v>
       </c>
       <c r="S9" t="n">
-        <v>4.219919363548515</v>
+        <v>4.219919363548514</v>
       </c>
       <c r="T9" t="n">
         <v>0.9157274840852623</v>
@@ -31679,7 +31679,7 @@
         <v>1.693423657577749</v>
       </c>
       <c r="I10" t="n">
-        <v>5.72785834280899</v>
+        <v>5.727858342808991</v>
       </c>
       <c r="J10" t="n">
         <v>13.46600796010445</v>
@@ -31688,10 +31688,10 @@
         <v>22.12878767264174</v>
       </c>
       <c r="L10" t="n">
-        <v>28.31722954603936</v>
+        <v>28.31722954603937</v>
       </c>
       <c r="M10" t="n">
-        <v>29.85654818774346</v>
+        <v>29.85654818774347</v>
       </c>
       <c r="N10" t="n">
         <v>29.14662620450537</v>
@@ -31755,7 +31755,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H11" t="n">
-        <v>5.441094081970009</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I11" t="n">
         <v>20.48263440450618</v>
@@ -31767,7 +31767,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L11" t="n">
-        <v>83.84186054832006</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M11" t="n">
         <v>93.29022445704545</v>
@@ -31837,7 +31837,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I12" t="n">
-        <v>9.78723797828963</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J12" t="n">
         <v>26.85692908157158</v>
@@ -31861,13 +31861,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.28634065224731</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R12" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S12" t="n">
-        <v>5.280121380644147</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T12" t="n">
         <v>1.14579257350932</v>
@@ -31916,7 +31916,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I13" t="n">
-        <v>7.166911188495985</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J13" t="n">
         <v>16.84917421793629</v>
@@ -31937,7 +31937,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P13" t="n">
-        <v>28.82363556582543</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q13" t="n">
         <v>19.95599122044634</v>
@@ -31946,7 +31946,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S13" t="n">
-        <v>4.153255365280168</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T13" t="n">
         <v>1.018273355076515</v>
@@ -32229,7 +32229,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H17" t="n">
-        <v>5.441094081970008</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I17" t="n">
         <v>20.48263440450618</v>
@@ -32241,7 +32241,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L17" t="n">
-        <v>83.84186054832004</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M17" t="n">
         <v>93.29022445704545</v>
@@ -32311,7 +32311,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I18" t="n">
-        <v>9.787237978289628</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J18" t="n">
         <v>26.85692908157158</v>
@@ -32335,13 +32335,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.2863406522473</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R18" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S18" t="n">
-        <v>5.280121380644146</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T18" t="n">
         <v>1.14579257350932</v>
@@ -32390,7 +32390,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I19" t="n">
-        <v>7.166911188495984</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J19" t="n">
         <v>16.84917421793629</v>
@@ -32411,7 +32411,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P19" t="n">
-        <v>28.82363556582542</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q19" t="n">
         <v>19.95599122044634</v>
@@ -32420,7 +32420,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S19" t="n">
-        <v>4.153255365280167</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T19" t="n">
         <v>1.018273355076515</v>
@@ -32703,7 +32703,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H23" t="n">
-        <v>5.441094081970008</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I23" t="n">
         <v>20.48263440450618</v>
@@ -32715,7 +32715,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L23" t="n">
-        <v>83.84186054832004</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M23" t="n">
         <v>93.29022445704545</v>
@@ -32785,7 +32785,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I24" t="n">
-        <v>9.787237978289628</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J24" t="n">
         <v>26.85692908157158</v>
@@ -32809,13 +32809,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.2863406522473</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R24" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S24" t="n">
-        <v>5.280121380644146</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T24" t="n">
         <v>1.14579257350932</v>
@@ -32864,7 +32864,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I25" t="n">
-        <v>7.166911188495984</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J25" t="n">
         <v>16.84917421793629</v>
@@ -32885,7 +32885,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P25" t="n">
-        <v>28.82363556582542</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q25" t="n">
         <v>19.95599122044634</v>
@@ -32894,7 +32894,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S25" t="n">
-        <v>4.153255365280167</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T25" t="n">
         <v>1.018273355076515</v>
@@ -32940,7 +32940,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H26" t="n">
-        <v>5.441094081970008</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I26" t="n">
         <v>20.48263440450618</v>
@@ -32952,7 +32952,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L26" t="n">
-        <v>83.84186054832004</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
@@ -33022,7 +33022,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I27" t="n">
-        <v>9.787237978289628</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J27" t="n">
         <v>26.85692908157158</v>
@@ -33046,13 +33046,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.2863406522473</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R27" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S27" t="n">
-        <v>5.280121380644146</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T27" t="n">
         <v>1.14579257350932</v>
@@ -33101,7 +33101,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I28" t="n">
-        <v>7.166911188495984</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J28" t="n">
         <v>16.84917421793629</v>
@@ -33122,7 +33122,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P28" t="n">
-        <v>28.82363556582542</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q28" t="n">
         <v>19.95599122044634</v>
@@ -33131,7 +33131,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S28" t="n">
-        <v>4.153255365280167</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T28" t="n">
         <v>1.018273355076515</v>
@@ -33651,7 +33651,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H35" t="n">
-        <v>5.441094081970009</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I35" t="n">
         <v>20.48263440450618</v>
@@ -33663,7 +33663,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L35" t="n">
-        <v>83.84186054832006</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M35" t="n">
         <v>93.29022445704545</v>
@@ -33733,7 +33733,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I36" t="n">
-        <v>9.78723797828963</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J36" t="n">
         <v>26.85692908157158</v>
@@ -33757,13 +33757,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.28634065224731</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R36" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S36" t="n">
-        <v>5.280121380644147</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T36" t="n">
         <v>1.14579257350932</v>
@@ -33812,7 +33812,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I37" t="n">
-        <v>7.166911188495985</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J37" t="n">
         <v>16.84917421793629</v>
@@ -33833,7 +33833,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P37" t="n">
-        <v>28.82363556582543</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q37" t="n">
         <v>19.95599122044634</v>
@@ -33842,7 +33842,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S37" t="n">
-        <v>4.153255365280168</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T37" t="n">
         <v>1.018273355076515</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5530919757300298</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H44" t="n">
-        <v>5.664353196445169</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I44" t="n">
-        <v>21.32307839433199</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J44" t="n">
-        <v>46.94299007511665</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K44" t="n">
-        <v>70.35537340776884</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L44" t="n">
-        <v>87.28206196001675</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
@@ -34383,25 +34383,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P44" t="n">
-        <v>79.535317474948</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.72771109411629</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R44" t="n">
-        <v>34.74316382045151</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S44" t="n">
-        <v>12.60358339694807</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T44" t="n">
-        <v>2.421160123758207</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04424735805840237</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2959302962597044</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H45" t="n">
-        <v>2.858063650718724</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I45" t="n">
-        <v>10.18882818262579</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J45" t="n">
-        <v>27.95892329706269</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K45" t="n">
-        <v>47.78625314646288</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -34468,19 +34468,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.77524272957209</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R45" t="n">
-        <v>18.3736371660192</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S45" t="n">
-        <v>5.496775459034417</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T45" t="n">
-        <v>1.192806764309948</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01946909843813845</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2480980194411959</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H46" t="n">
-        <v>2.205816936486271</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I46" t="n">
-        <v>7.460984075558875</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J46" t="n">
-        <v>17.54052997449255</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K46" t="n">
-        <v>28.82447898598621</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L46" t="n">
-        <v>36.88540918128471</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M46" t="n">
-        <v>38.89049226567764</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N46" t="n">
-        <v>37.96576328412412</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O46" t="n">
-        <v>35.06752732974287</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P46" t="n">
-        <v>30.00632773314245</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.7748259733896</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R46" t="n">
-        <v>11.15538912869231</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S46" t="n">
-        <v>4.323671847897931</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T46" t="n">
-        <v>1.060055173976019</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01353261924224707</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
